--- a/EASYCAD.bundle/CONTENTS/48/EASYCADCOMMANDS.xlsx
+++ b/EASYCAD.bundle/CONTENTS/48/EASYCADCOMMANDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOLISP\CAD.NET\CAD ONE PROJECT\EASYCAD\EASYCAD\MENU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1F2C83-76EB-4811-9FF4-15B1736CCB54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D23E4E-A71A-41A6-9B15-30F8D15941EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="589" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Layout" sheetId="7" r:id="rId9"/>
     <sheet name="Points" sheetId="10" r:id="rId10"/>
     <sheet name="Quantity" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId12"/>
+    <sheet name="Activiation" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t>ALB</t>
   </si>
@@ -101,9 +101,6 @@
     <t>DSB</t>
   </si>
   <si>
-    <t>DBK</t>
-  </si>
-  <si>
     <t>DCP</t>
   </si>
   <si>
@@ -128,15 +125,9 @@
     <t>PDS</t>
   </si>
   <si>
-    <t>FFF</t>
-  </si>
-  <si>
     <t>CTLL</t>
   </si>
   <si>
-    <t>VVV</t>
-  </si>
-  <si>
     <t>VPL</t>
   </si>
   <si>
@@ -236,9 +227,6 @@
     <t>[DSB]..Split Dim BY Pick Block</t>
   </si>
   <si>
-    <t>[DBK]..xxxxxxx</t>
-  </si>
-  <si>
     <t>[DCP]..Dim Continous</t>
   </si>
   <si>
@@ -269,9 +257,6 @@
     <t>[CTLL]..Copy Elements From layout To Other</t>
   </si>
   <si>
-    <t>[VVV]..xxxxx</t>
-  </si>
-  <si>
     <t>[VPL]..Lock All ViewPorts</t>
   </si>
   <si>
@@ -314,9 +299,6 @@
     <t>[ATX]..Align Texts With Each Other</t>
   </si>
   <si>
-    <t>[FFF]..Filter Of Selected Elements</t>
-  </si>
-  <si>
     <t>[RTX]..Rotate Text Around BasePoint</t>
   </si>
   <si>
@@ -339,6 +321,12 @@
   </si>
   <si>
     <t>EASYCADABOUTLICENSE</t>
+  </si>
+  <si>
+    <t>FFFX</t>
+  </si>
+  <si>
+    <t>[FFFX]..Filter Of Selected Elements</t>
   </si>
 </sst>
 </file>
@@ -694,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3964A46-3239-4E95-92A6-86E1F0513080}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,15 +695,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -723,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -731,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -756,10 +744,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -784,10 +772,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -799,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D7A93B-4F9E-47B0-86E7-740BF12A5166}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,18 +800,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +844,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -864,7 +852,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -877,26 +865,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -921,26 +909,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -953,23 +941,23 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -994,86 +982,86 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1114,7 +1102,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1155,39 +1143,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1212,44 +1200,44 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1259,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7488EBDB-389A-4826-AB6B-97037C1F3ED0}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,12 +1265,12 @@
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1290,7 +1278,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1298,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1306,7 +1294,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1314,15 +1302,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1332,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E0DCE1-55D2-48DC-B9F7-BEBF483C87A9}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,47 +1327,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/EASYCAD.bundle/CONTENTS/48/EASYCADCOMMANDS.xlsx
+++ b/EASYCAD.bundle/CONTENTS/48/EASYCADCOMMANDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOLISP\CAD.NET\CAD ONE PROJECT\EASYCAD\EASYCAD\MENU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D23E4E-A71A-41A6-9B15-30F8D15941EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C22785-A793-4B52-AACF-40FE07ED722E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="589" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="Layout" sheetId="7" r:id="rId9"/>
     <sheet name="Points" sheetId="10" r:id="rId10"/>
     <sheet name="Quantity" sheetId="11" r:id="rId11"/>
-    <sheet name="Activiation" sheetId="13" r:id="rId12"/>
+    <sheet name="Update" sheetId="14" r:id="rId12"/>
+    <sheet name="Activiation" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>ALB</t>
   </si>
@@ -327,6 +328,12 @@
   </si>
   <si>
     <t>[FFFX]..Filter Of Selected Elements</t>
+  </si>
+  <si>
+    <t>EASYCADUPDATE</t>
+  </si>
+  <si>
+    <t>[ Check Update EASYCAD ]</t>
   </si>
 </sst>
 </file>
@@ -682,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3964A46-3239-4E95-92A6-86E1F0513080}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -784,6 +791,34 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D55C9DC-4EA9-4E98-A0D6-4A92580AC369}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D7A93B-4F9E-47B0-86E7-740BF12A5166}">
   <dimension ref="A1:B2"/>
   <sheetViews>
